--- a/MagicBricks-MBadvice (1).xlsx
+++ b/MagicBricks-MBadvice (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/jakkula-mary-grace_jakkula-mary-grace_capgemini_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="8_{ED5C968E-25B5-4949-8956-D0FDBD41C61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3EE0255-AF9E-4966-9C26-E0A888DDAA40}"/>
+  <xr:revisionPtr revIDLastSave="672" documentId="8_{ED5C968E-25B5-4949-8956-D0FDBD41C61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35C0F719-06F6-4813-B042-863C5F75F218}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="5" xr2:uid="{D7CC03E0-26F2-449F-B7DA-802E593DEADC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="2" activeTab="5" xr2:uid="{D7CC03E0-26F2-449F-B7DA-802E593DEADC}"/>
   </bookViews>
   <sheets>
     <sheet name="UserStory" sheetId="1" r:id="rId1"/>
@@ -42,77 +42,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="227">
-  <si>
-    <t>Issue Type</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Summary(MagicBricks)</t>
-  </si>
-  <si>
-    <t>Epic 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="250">
   <si>
     <t>High</t>
   </si>
   <si>
-    <t>Story 1</t>
-  </si>
-  <si>
-    <t>Story 2</t>
-  </si>
-  <si>
-    <t>Sub Story 1</t>
-  </si>
-  <si>
-    <t>Sub Story 2</t>
-  </si>
-  <si>
-    <t>Sub Story 3</t>
-  </si>
-  <si>
-    <t>Sub Story 4</t>
-  </si>
-  <si>
-    <t>Sub Story 5</t>
-  </si>
-  <si>
-    <t>Sub Story 6</t>
-  </si>
-  <si>
     <t>MB Advice Page Functionality</t>
   </si>
   <si>
-    <t>As a buyer,I want to select "Tools &amp; Advice" so that I can use various tools.</t>
-  </si>
-  <si>
-    <t>As a buyer,I want to launch the MagicBricks homepage so that I can access the website successfully.</t>
-  </si>
-  <si>
-    <t>As a buyer,I want to apply filters for cities so that I can refine my search results easily.</t>
-  </si>
-  <si>
-    <t>As a buyer,I want to view the locality overview section so that I can understand key details about the locality.</t>
-  </si>
-  <si>
-    <t>As a buyer,I want to open the MB Advice menu so that I can navigate to different sections.</t>
-  </si>
-  <si>
-    <t>As a buyer,I want to open the "Localities in New Delhi" page so that I can see all available localities.</t>
-  </si>
-  <si>
-    <t>As a buyer,I want to click on any displayed locality so that I can access its detailed information.</t>
-  </si>
-  <si>
-    <t>As a buyer,I want to select "Properties for Sale/Rent" so that I can view property listings in that locality</t>
-  </si>
-  <si>
-    <t>As a buyer,I want to view the "Rates &amp; Trends" so that I can understand the price trends of the selected locality.</t>
-  </si>
-  <si>
     <t>Test Scenario ID</t>
   </si>
   <si>
@@ -122,18 +59,12 @@
     <t>Test Scenario Description</t>
   </si>
   <si>
-    <t>Type of testing</t>
-  </si>
-  <si>
     <t>Possible No. of Test cases</t>
   </si>
   <si>
     <t>Test Case Details</t>
   </si>
   <si>
-    <t>Functional Testing</t>
-  </si>
-  <si>
     <t>TS_MB_MBAdvicepage_01</t>
   </si>
   <si>
@@ -146,27 +77,6 @@
     <t>REQ_MB_MBAdvicepage_02</t>
   </si>
   <si>
-    <t>To Verify that MagicBricks homepage loads and MB Advice is accessible</t>
-  </si>
-  <si>
-    <t>As a buyer,I want to enter valid locality into the locality search box so that I can find a specific locality.</t>
-  </si>
-  <si>
-    <t>As a buyer,I want to enter invalid locality into the locality search box so that I can get the error.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a buyer,I want to apply price range filters so that I can see only localities within my budget </t>
-  </si>
-  <si>
-    <t>Sub Story 7</t>
-  </si>
-  <si>
-    <t>As a buyer,I want to select filters according to my requirement so that I can explore any displayed locality.</t>
-  </si>
-  <si>
-    <t>As a buyer,I want to enter empty locality into the locality search box so that I can get the error.</t>
-  </si>
-  <si>
     <t>TS_MB_MBAdvicepage_02</t>
   </si>
   <si>
@@ -215,9 +125,6 @@
     <t>Precondition</t>
   </si>
   <si>
-    <t>Test Condition</t>
-  </si>
-  <si>
     <t>Test Case Steps</t>
   </si>
   <si>
@@ -227,27 +134,10 @@
     <t>Expected Result</t>
   </si>
   <si>
-    <t>Actual Result Iteration 1</t>
-  </si>
-  <si>
-    <t>Actual Result Iteration 2</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
-    <t>Req: Reference</t>
-  </si>
-  <si>
-    <t>Status
-Iteration 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Test Case ID </t>
-  </si>
-  <si>
-    <t>Status
-Iteration 1</t>
   </si>
   <si>
     <t>Browser is Launched.</t>
@@ -320,10 +210,6 @@
   <si>
     <t>MB Advice dropdown should 
 disappear</t>
-  </si>
-  <si>
-    <t>MB Advice dropdown should 
-not disappear</t>
   </si>
   <si>
     <t>TC_MB_05</t>
@@ -418,9 +304,6 @@
     <t>Localities in New Delhi page should be loaded</t>
   </si>
   <si>
-    <t>Localities in New Delhi page is not loaded</t>
-  </si>
-  <si>
     <t>To Verify localities in New Delhi  page</t>
   </si>
   <si>
@@ -497,10 +380,6 @@
     <t>TC_MB_12</t>
   </si>
   <si>
-    <t>To Validate overview content is 
-displayed or not.</t>
-  </si>
-  <si>
     <t>To Validate click on any displayed locality.</t>
   </si>
   <si>
@@ -590,18 +469,6 @@
 displayed</t>
   </si>
   <si>
-    <t>Defect Id.</t>
-  </si>
-  <si>
-    <t>Module name</t>
-  </si>
-  <si>
-    <t>Defect Summary</t>
-  </si>
-  <si>
-    <t>Defect Priority</t>
-  </si>
-  <si>
     <t>Assigned To</t>
   </si>
   <si>
@@ -611,13 +478,7 @@
     <t>DF_MB_06</t>
   </si>
   <si>
-    <t>New</t>
-  </si>
-  <si>
     <t>DF_MB_07</t>
-  </si>
-  <si>
-    <t>MBAdvice page of Magic Bricks</t>
   </si>
   <si>
     <t>DF_MB_14</t>
@@ -631,9 +492,6 @@
 displayed for invalid location</t>
   </si>
   <si>
-    <t>Rates &amp; Trends search box - No error msg is displayed</t>
-  </si>
-  <si>
     <t>BR_ID</t>
   </si>
   <si>
@@ -658,30 +516,9 @@
     <t>TR_MB_MBAdvicepage_01</t>
   </si>
   <si>
-    <t>TS_MB_MBAdvicepage_08</t>
-  </si>
-  <si>
-    <t>TS_MB_MBAdvicepage_09</t>
-  </si>
-  <si>
-    <t>TS_MB_MBAdvicepage_10</t>
-  </si>
-  <si>
-    <t>TS_MB_MBAdvicepage_11</t>
-  </si>
-  <si>
-    <t>TS_MB_MBAdvicepage_12</t>
-  </si>
-  <si>
-    <t>TS_MB_MBAdvicepage_13</t>
-  </si>
-  <si>
     <t>Project Name</t>
   </si>
   <si>
-    <t>Module Name</t>
-  </si>
-  <si>
     <t>Total Cases</t>
   </si>
   <si>
@@ -704,27 +541,6 @@
   </si>
   <si>
     <t>MagicBricks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MagicBricks-Homepage </t>
-  </si>
-  <si>
-    <t>MBAdvice-Localities in New Delhi page</t>
-  </si>
-  <si>
-    <t>MBAdvice-Locality Search Box</t>
-  </si>
-  <si>
-    <t>MBAdvice-Sort and  Price range filters</t>
-  </si>
-  <si>
-    <t>MBAdvice-Locality details page</t>
-  </si>
-  <si>
-    <t>MBAdvice- Properties for Sale/Rent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBAdvice-Rates &amp; Trends category </t>
   </si>
   <si>
     <t>BR_MB_MBAdvicepage_02</t>
@@ -800,20 +616,281 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Functional Testing </t>
-  </si>
-  <si>
     <t>dev@gmail.com</t>
   </si>
   <si>
-    <t>Functional Testing &amp; UI Testing</t>
+    <t>To Verify  MagicBricks homepage loads and MB Advice is accessible</t>
+  </si>
+  <si>
+    <t>To Validate overview content is displayed or not.</t>
+  </si>
+  <si>
+    <t>Test Summary Report format</t>
+  </si>
+  <si>
+    <t>UI Testing</t>
+  </si>
+  <si>
+    <t>[Mary Grace: 10/11/2025 8:00 PM]
+All the test steps were successfully executed, and the expected results were achieved.</t>
+  </si>
+  <si>
+    <t>Application Under  Test:</t>
+  </si>
+  <si>
+    <t>Module:</t>
+  </si>
+  <si>
+    <t>MB Advice page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epic </t>
+  </si>
+  <si>
+    <t>User Story ID</t>
+  </si>
+  <si>
+    <t>User Story</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria</t>
+  </si>
+  <si>
+    <t>US_ID_1</t>
+  </si>
+  <si>
+    <t>US_ID_2</t>
+  </si>
+  <si>
+    <t>US_ID_3</t>
+  </si>
+  <si>
+    <t>US_ID_4</t>
+  </si>
+  <si>
+    <t>US_ID_5</t>
+  </si>
+  <si>
+    <t>US_ID_6</t>
+  </si>
+  <si>
+    <t>US_ID_7</t>
+  </si>
+  <si>
+    <t>As a buyer,I want to load the MagicBricks homepage and access the MB Advice page so that I can start browsing properties.</t>
+  </si>
+  <si>
+    <t>1. Given the user launches the MagicBricks URL,When the homepage loads,Then the homepage should display without errors. 
+2. Given the homepage is displayed,When the user clicks on the MB Advice page menu,Then the page should open successfully.
+3. The page load time must be within acceptable limits .</t>
+  </si>
+  <si>
+    <t>1.The Page should load successfully.</t>
+  </si>
+  <si>
+    <t>As a buyer,I want to open" localities in New Delhi "page  so that I can find properties in that locality.</t>
+  </si>
+  <si>
+    <t>1. Given the user is on the "Localities in New Delhi" page,When the user enters a valid city name,Then all locality suggestions in that city should display.
+2. When an unknown city is entered,Then an appropriate error message should appear.</t>
+  </si>
+  <si>
+    <t>1.Given the filter panel is visible,When the user selects any filter,Then the search results should refresh accordingly.</t>
+  </si>
+  <si>
+    <t>As a buyer,I want to view details of the locality so that I get more information about the locality.</t>
+  </si>
+  <si>
+    <t>As a buyer,I want to apply filters such as price,review,ratings and demand so that I can refine my search results.</t>
+  </si>
+  <si>
+    <t>As a buyer,I want to enter a city name in the search box so that I can view all related locality listings.</t>
+  </si>
+  <si>
+    <t>1.Given the user clicks on "Explore locality",When the page loads,Then the user can view the locality details.</t>
+  </si>
+  <si>
+    <t>As a buyer,I want to select the "Properties for sale/rent" so that I can see only properties available for purchase</t>
+  </si>
+  <si>
+    <t>1.Given the user clicks on "Properties for sale/rent",When the page loads,Then only sale/rent listings must appear.</t>
+  </si>
+  <si>
+    <t>As a buyer,I want to select "Rates &amp; Trends" in "tools &amp; trends" so that I can understand the price trends of the selected locality.</t>
+  </si>
+  <si>
+    <t>1.Given the user clicks on "Rates &amp; Trends",When the page loads,Then the price trends of the selected locality are displayed.</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>Post Condition</t>
+  </si>
+  <si>
+    <t>Testing Type</t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t>Homepage remains stable</t>
+  </si>
+  <si>
+    <t>Dropdown remains visible until cursor moves</t>
+  </si>
+  <si>
+    <t>Dropdown hidden</t>
+  </si>
+  <si>
+    <t>Localities page displayed</t>
+  </si>
+  <si>
+    <t>Locality details displayed</t>
+  </si>
+  <si>
+    <t>Error message displayed</t>
+  </si>
+  <si>
+    <t>Locality clickable</t>
+  </si>
+  <si>
+    <t>Overview displayed</t>
+  </si>
+  <si>
+    <t>Details page displayed</t>
+  </si>
+  <si>
+    <t>Trends displayed</t>
+  </si>
+  <si>
+    <t>Locality list displayed</t>
+  </si>
+  <si>
+    <t>[Mary Grace: 10/11/2024 2:00 PM]
+All the test steps were successfully executed, and the expected results were achieved.</t>
+  </si>
+  <si>
+    <t>[Mary Grace: 10/11/2024 2:00 PM]
+All the test steps were successfully executed, and the expected results were not achieved.</t>
+  </si>
+  <si>
+    <t>Localities in New Delhi page is  loaded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual Result </t>
+  </si>
+  <si>
+    <t>MB Advice Page</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>DefectId</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Build Version</t>
+  </si>
+  <si>
+    <t>Steps to reproduce</t>
+  </si>
+  <si>
+    <t>Expected Behavior</t>
+  </si>
+  <si>
+    <t>Actual Behavior</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Reported By</t>
+  </si>
+  <si>
+    <t>Reported On</t>
+  </si>
+  <si>
+    <t>Current Status</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>1. Navigate to the relevant page
+2. Enter invalid or blank location
+3. Click on Search</t>
+  </si>
+  <si>
+    <t>Error message should be 
+displayed for invalid or blank input.</t>
+  </si>
+  <si>
+    <t>No error message displayed.</t>
+  </si>
+  <si>
+    <t>Mary Grace</t>
+  </si>
+  <si>
+    <t>Various browers like edge,chrome, Windows 11</t>
+  </si>
+  <si>
+    <t>Various browers like edge,chrome, Windows 12</t>
+  </si>
+  <si>
+    <t>Various browers like edge,chrome, Windows 13</t>
+  </si>
+  <si>
+    <t>To be resolved</t>
+  </si>
+  <si>
+    <t>Real Estate(v3.0)</t>
+  </si>
+  <si>
+    <t>Rates &amp; Trends search box - No error msg is
+ displayed</t>
+  </si>
+  <si>
+    <t>System does not display error message as 
+expected for search box functionality.</t>
+  </si>
+  <si>
+    <t>System does not display error message as 
+expected for rates &amp; trends search box.</t>
+  </si>
+  <si>
+    <t>User is on MagicBricks homepage and MB Advice is accessible</t>
+  </si>
+  <si>
+    <t>User is on localities in New Delhi  page</t>
+  </si>
+  <si>
+    <t>User searches localities in search box</t>
+  </si>
+  <si>
+    <t>User applies sort and  price range filters in MB Advice page</t>
+  </si>
+  <si>
+    <t>User verifies if locality details page loads all sections</t>
+  </si>
+  <si>
+    <t>User clicks on  Properties for Sale/Rent and view its details</t>
+  </si>
+  <si>
+    <t>User clicks on  Rates &amp; Trends category in Tools &amp; Advice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -857,13 +934,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="1"/>
@@ -900,8 +970,93 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -946,12 +1101,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCCCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -962,8 +1111,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -991,30 +1164,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1063,57 +1214,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1124,6 +1473,10 @@
   <colors>
     <mruColors>
       <color rgb="FFFFCCCC"/>
+      <color rgb="FFCCECFF"/>
+      <color rgb="FFFFFFFF"/>
+      <color rgb="FFCCFFFF"/>
+      <color rgb="FF99CCFF"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FF99FFCC"/>
       <color rgb="FFFFFFCC"/>
@@ -1138,6 +1491,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1457,198 +1814,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5508A11B-66D9-46F5-B9CF-56C678DF23F0}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="B1" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.6328125" customWidth="1"/>
-    <col min="2" max="2" width="104.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.81640625" customWidth="1"/>
-    <col min="4" max="4" width="26.54296875" customWidth="1"/>
+    <col min="1" max="1" width="29.1796875" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" customWidth="1"/>
+    <col min="3" max="3" width="101.90625" customWidth="1"/>
+    <col min="4" max="4" width="125.1796875" customWidth="1"/>
     <col min="5" max="5" width="26.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="8" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="61" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>4</v>
+      <c r="B6" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="61"/>
+      <c r="B7" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="61"/>
+      <c r="B8" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="61"/>
+      <c r="B9" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="61"/>
+      <c r="B10" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="61"/>
+      <c r="B11" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="61"/>
+      <c r="B12" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:A12"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1658,8 +1959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C509BBE3-26AD-465A-9F0A-44A22ABEEED1}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="49" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="53" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1667,169 +1968,169 @@
     <col min="1" max="1" width="33.6328125" customWidth="1"/>
     <col min="2" max="2" width="37.7265625" customWidth="1"/>
     <col min="3" max="3" width="78.54296875" customWidth="1"/>
-    <col min="4" max="4" width="31.81640625" customWidth="1"/>
-    <col min="5" max="5" width="29.7265625" customWidth="1"/>
-    <col min="6" max="6" width="49.26953125" customWidth="1"/>
+    <col min="4" max="4" width="76" customWidth="1"/>
+    <col min="5" max="5" width="27.453125" customWidth="1"/>
+    <col min="6" max="6" width="59.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="93.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="19">
+        <v>3</v>
+      </c>
+      <c r="F2" s="60" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="78.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="19">
+        <v>1</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="19">
+        <v>3</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="19">
+        <v>2</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="19">
+        <v>2</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="62" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="C7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1</v>
+      </c>
+      <c r="F7" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="93.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="1">
+    </row>
+    <row r="8" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="19">
         <v>3</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="78.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="F8" s="60" t="s">
         <v>118</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="62" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -1838,7 +2139,6 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
@@ -1846,7 +2146,6 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1856,569 +2155,640 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC987783-B12D-4B14-BA4B-6CA4AC2DE258}">
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="37" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScale="72" zoomScaleNormal="48" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.90625" customWidth="1"/>
-    <col min="2" max="2" width="30.6328125" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" customWidth="1"/>
-    <col min="4" max="4" width="26.08984375" customWidth="1"/>
+    <col min="1" max="1" width="42.1796875" customWidth="1"/>
+    <col min="2" max="2" width="19.90625" customWidth="1"/>
+    <col min="3" max="3" width="30.6328125" customWidth="1"/>
+    <col min="4" max="4" width="27.54296875" customWidth="1"/>
     <col min="5" max="5" width="23.453125" customWidth="1"/>
-    <col min="6" max="6" width="34.1796875" customWidth="1"/>
-    <col min="7" max="7" width="25.08984375" customWidth="1"/>
-    <col min="8" max="8" width="29.26953125" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" customWidth="1"/>
-    <col min="10" max="10" width="27.54296875" customWidth="1"/>
-    <col min="11" max="11" width="17.08984375" customWidth="1"/>
-    <col min="12" max="12" width="17.1796875" customWidth="1"/>
+    <col min="6" max="10" width="34.1796875" customWidth="1"/>
+    <col min="11" max="11" width="16.81640625" customWidth="1"/>
+    <col min="12" max="12" width="32.36328125" customWidth="1"/>
     <col min="13" max="13" width="18.08984375" customWidth="1"/>
     <col min="14" max="14" width="18.54296875" customWidth="1"/>
     <col min="18" max="18" width="29.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="74.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:14" ht="74.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+    </row>
+    <row r="2" spans="1:14" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="88" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="J2" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="60" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="61"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="J3" s="19"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="19"/>
+    </row>
+    <row r="4" spans="1:14" ht="66.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="61"/>
+      <c r="B4" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="J4" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="60" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="61"/>
+      <c r="B5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="J5" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="60" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="J6" s="60" t="s">
+        <v>215</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="60" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="66" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="J7" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="60" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="61"/>
+      <c r="B8" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="J8" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" s="60" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="61"/>
+      <c r="B9" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="J9" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="60" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="23" t="s">
+      <c r="E10" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="J10" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="60" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="61"/>
+      <c r="B11" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="J11" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="60" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="J12" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="60" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="61"/>
+      <c r="B13" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="J13" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="60" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="J14" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="60" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="J15" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="60" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="53.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="61"/>
+      <c r="B16" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="J1" s="23" t="s">
+      <c r="F16" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="J16" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="23" t="s">
+      <c r="K16" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-    </row>
-    <row r="2" spans="1:15" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" ht="66.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" ht="66" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" s="11" t="s">
+      <c r="L16" s="60" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="61"/>
+      <c r="B17" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C17" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="D17" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="F17" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" ht="53.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="G17" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="I17" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="J17" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="60" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
@@ -2428,14 +2798,13 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2449,7 +2818,6 @@
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2463,7 +2831,6 @@
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2477,7 +2844,6 @@
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2491,7 +2857,6 @@
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2505,7 +2870,6 @@
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2519,7 +2883,6 @@
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2533,7 +2896,6 @@
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -2547,7 +2909,6 @@
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2561,7 +2922,6 @@
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2575,7 +2935,6 @@
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2589,7 +2948,6 @@
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2603,7 +2961,6 @@
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2617,7 +2974,6 @@
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2630,8 +2986,7 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="1"/>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2644,8 +2999,7 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="1"/>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2658,8 +3012,7 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="1"/>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -2672,8 +3025,7 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="1"/>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -2686,8 +3038,7 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="1"/>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2700,8 +3051,7 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="1"/>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2714,8 +3064,7 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="1"/>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2728,8 +3077,7 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="1"/>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -2742,10 +3090,21 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:A17"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" tooltip="https://www.magicbricks.com/property-for-sale-rent-in-bangalore/residential-real-estate-bangalore" xr:uid="{18BC5A6A-2144-47DB-9D8F-DA6600963AF5}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{18BC5A6A-2144-47DB-9D8F-DA6600963AF5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2754,107 +3113,211 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD013C4-2627-4A1F-9736-9D8EB42CAFC0}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="77" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.08984375" customWidth="1"/>
-    <col min="2" max="2" width="27.08984375" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" customWidth="1"/>
+    <col min="2" max="2" width="36.7265625" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="87" customWidth="1"/>
     <col min="4" max="4" width="33.7265625" customWidth="1"/>
     <col min="5" max="5" width="26.36328125" customWidth="1"/>
     <col min="6" max="6" width="23.08984375" customWidth="1"/>
+    <col min="7" max="7" width="29.6328125" customWidth="1"/>
+    <col min="8" max="8" width="19.26953125" customWidth="1"/>
+    <col min="9" max="9" width="23.7265625" customWidth="1"/>
+    <col min="10" max="10" width="22.81640625" customWidth="1"/>
+    <col min="11" max="11" width="27.26953125" customWidth="1"/>
+    <col min="12" max="12" width="27.08984375" customWidth="1"/>
+    <col min="13" max="13" width="28.1796875" customWidth="1"/>
+    <col min="14" max="14" width="46.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>178</v>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="90" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="90" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="90" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1" s="90" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="90" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1" s="90" t="s">
+        <v>223</v>
+      </c>
+      <c r="G1" s="90" t="s">
+        <v>224</v>
+      </c>
+      <c r="H1" s="90" t="s">
+        <v>225</v>
+      </c>
+      <c r="I1" s="90" t="s">
+        <v>226</v>
+      </c>
+      <c r="J1" s="90" t="s">
+        <v>227</v>
+      </c>
+      <c r="K1" s="90" t="s">
+        <v>228</v>
+      </c>
+      <c r="L1" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1" s="90" t="s">
+        <v>229</v>
+      </c>
+      <c r="N1" s="90" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="63.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>241</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>177</v>
+        <v>239</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="G2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H2" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="92" t="s">
+        <v>234</v>
+      </c>
+      <c r="K2" s="89">
+        <v>45971</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="M2" s="93" t="s">
+        <v>238</v>
+      </c>
+      <c r="N2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="59" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>241</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>179</v>
+        <v>239</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="G3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H3" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="92" t="s">
+        <v>234</v>
+      </c>
+      <c r="K3" s="89">
+        <v>45971</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="M3" s="93" t="s">
+        <v>238</v>
+      </c>
+      <c r="N3" s="92" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>242</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>173</v>
+        <v>239</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="G4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="92" t="s">
+        <v>234</v>
+      </c>
+      <c r="K4" s="89">
+        <v>45971</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="M4" s="93" t="s">
+        <v>238</v>
+      </c>
+      <c r="N4" s="92" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{35EF5D27-D78E-4D2A-B57E-0D38833CD491}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{879CC1FD-C5D5-44F4-BE17-EE416A195ECF}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{FD867C2E-1921-4961-98F4-29244154F989}"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{D5076BCD-C07C-478B-BA05-298677092DC0}"/>
+    <hyperlink ref="L3:L4" r:id="rId2" display="dev@gmail.com" xr:uid="{ADC18C31-8BDA-4F38-A568-88A7EF707B58}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2879,291 +3342,291 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>185</v>
+      <c r="A1" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>187</v>
+      <c r="A2" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>76</v>
+        <v>41</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>76</v>
+        <v>42</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>76</v>
+        <v>44</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>211</v>
+        <v>151</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>212</v>
+        <v>152</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="62"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="15" t="s">
+      <c r="E10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="62"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>76</v>
+      <c r="E12" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>219</v>
+        <v>159</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>76</v>
+        <v>101</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>221</v>
+      <c r="A14" s="62" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>161</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>76</v>
+      <c r="E14" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="1" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>100</v>
+        <v>117</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="62"/>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>76</v>
+        <v>95</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3185,16 +3648,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CA5874-D587-4C08-ACE7-4A5E4DFD9BDE}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.08984375" customWidth="1"/>
-    <col min="2" max="2" width="37.54296875" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="104.1796875" customWidth="1"/>
     <col min="3" max="3" width="17.453125" customWidth="1"/>
     <col min="4" max="4" width="18.7265625" customWidth="1"/>
     <col min="5" max="5" width="20.453125" customWidth="1"/>
@@ -3205,250 +3668,278 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="A1" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
     </row>
     <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>202</v>
+      <c r="A2" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C3" s="1">
+    <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="17">
+        <v>15</v>
+      </c>
+      <c r="D3" s="17">
+        <v>12</v>
+      </c>
+      <c r="E3" s="17">
         <v>3</v>
       </c>
-      <c r="D3" s="1">
+      <c r="F3" s="17">
+        <v>15</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="I3" s="18">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="61"/>
+      <c r="B4" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" s="19">
         <v>3</v>
       </c>
-      <c r="E3" s="1">
+      <c r="D4" s="19">
+        <v>3</v>
+      </c>
+      <c r="E4" s="19">
         <v>0</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F4" s="19">
         <v>3</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G4" s="20">
         <v>1</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H4" s="20">
         <v>0</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I4" s="20">
         <v>1</v>
       </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="27"/>
-      <c r="B4" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="61"/>
+      <c r="B5" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="19">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D5" s="19">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E5" s="19">
         <v>0</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F5" s="19">
         <v>1</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G5" s="20">
         <v>1</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H5" s="20">
         <v>0</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I5" s="20">
         <v>1</v>
       </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="27"/>
-      <c r="B5" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="61"/>
+      <c r="B6" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="19">
         <v>3</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D6" s="19">
         <v>1</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E6" s="19">
         <v>2</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F6" s="19">
         <v>3</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G6" s="20">
         <v>0.33</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H6" s="20">
         <v>0.67</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I6" s="20">
         <v>1</v>
       </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="27"/>
-      <c r="B6" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="61"/>
+      <c r="B7" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" s="19">
         <v>2</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D7" s="19">
         <v>2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="19">
         <v>0</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F7" s="19">
         <v>2</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G7" s="20">
         <v>1</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H7" s="20">
         <v>0</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I7" s="20">
         <v>1</v>
       </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="27"/>
-      <c r="B7" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="61"/>
+      <c r="B8" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" s="19">
         <v>2</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="19">
         <v>2</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E8" s="19">
         <v>0</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F8" s="19">
         <v>2</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G8" s="20">
         <v>1</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H8" s="20">
         <v>0</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I8" s="20">
         <v>1</v>
       </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="27"/>
-      <c r="B8" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="61"/>
+      <c r="B9" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="19">
         <v>1</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D9" s="19">
         <v>1</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E9" s="19">
         <v>0</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F9" s="19">
         <v>1</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G9" s="20">
         <v>1</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H9" s="20">
         <v>0</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I9" s="20">
         <v>1</v>
       </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="27"/>
-      <c r="B9" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="61"/>
+      <c r="B10" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="19">
         <v>3</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D10" s="19">
         <v>2</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E10" s="19">
         <v>1</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F10" s="19">
         <v>3</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G10" s="20">
         <v>0.67</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H10" s="20">
         <v>0.33</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I10" s="20">
         <v>1</v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="J10" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A3:A9"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3456,15 +3947,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7E18A8-A25E-4632-A9B5-338EA70C0E4B}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:F138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="59" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="168" customWidth="1"/>
     <col min="2" max="2" width="18.90625" customWidth="1"/>
     <col min="3" max="3" width="18.453125" customWidth="1"/>
     <col min="4" max="4" width="20.08984375" customWidth="1"/>
@@ -3472,7 +3963,986 @@
     <col min="6" max="6" width="16.453125" customWidth="1"/>
     <col min="7" max="7" width="16.26953125" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:6" ht="25" x14ac:dyDescent="0.5">
+      <c r="A2" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.35">
+      <c r="A3" s="31"/>
+      <c r="F3" s="32"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="33"/>
+      <c r="F4" s="32"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="59"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.35">
+      <c r="A6" s="34"/>
+      <c r="F6" s="32"/>
+    </row>
+    <row r="7" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="59"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.35">
+      <c r="A8" s="35"/>
+      <c r="F8" s="32"/>
+    </row>
+    <row r="9" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="73"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="43"/>
+    </row>
+    <row r="10" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="67"/>
+      <c r="B10" s="26"/>
+      <c r="F10" s="32"/>
+    </row>
+    <row r="11" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="68"/>
+      <c r="B11" s="26"/>
+      <c r="F11" s="32"/>
+    </row>
+    <row r="12" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="68"/>
+      <c r="B12" s="23"/>
+      <c r="F12" s="32"/>
+    </row>
+    <row r="13" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="68"/>
+      <c r="B13" s="23"/>
+      <c r="F13" s="32"/>
+    </row>
+    <row r="14" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="68"/>
+      <c r="B14" s="23"/>
+      <c r="F14" s="32"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="68"/>
+      <c r="B15" s="57"/>
+      <c r="F15" s="32"/>
+    </row>
+    <row r="16" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="68"/>
+      <c r="B16" s="57"/>
+      <c r="F16" s="32"/>
+    </row>
+    <row r="17" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="68"/>
+      <c r="B17" s="23"/>
+      <c r="F17" s="32"/>
+    </row>
+    <row r="18" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="69"/>
+      <c r="B18" s="23"/>
+      <c r="F18" s="32"/>
+    </row>
+    <row r="19" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="58"/>
+      <c r="B19" s="26"/>
+      <c r="F19" s="32"/>
+    </row>
+    <row r="20" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="70"/>
+      <c r="B20" s="23"/>
+      <c r="F20" s="32"/>
+    </row>
+    <row r="21" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="71"/>
+      <c r="B21" s="23"/>
+      <c r="F21" s="32"/>
+    </row>
+    <row r="22" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="71"/>
+      <c r="B22" s="23"/>
+      <c r="F22" s="32"/>
+    </row>
+    <row r="23" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="71"/>
+      <c r="B23" s="23"/>
+      <c r="F23" s="32"/>
+    </row>
+    <row r="24" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="71"/>
+      <c r="B24" s="23"/>
+      <c r="F24" s="32"/>
+    </row>
+    <row r="25" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="71"/>
+      <c r="B25" s="23"/>
+      <c r="F25" s="32"/>
+    </row>
+    <row r="26" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="72"/>
+      <c r="B26" s="23"/>
+      <c r="F26" s="32"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F27" s="32"/>
+    </row>
+    <row r="28" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="76"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="32"/>
+    </row>
+    <row r="29" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="55"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="32"/>
+    </row>
+    <row r="30" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="55"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="32"/>
+    </row>
+    <row r="31" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="55"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="32"/>
+    </row>
+    <row r="32" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A32" s="55"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="32"/>
+    </row>
+    <row r="33" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A33" s="22"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="32"/>
+    </row>
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.35">
+      <c r="A34" s="44"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="32"/>
+    </row>
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.35">
+      <c r="A35" s="46"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="32"/>
+    </row>
+    <row r="36" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A36" s="36"/>
+      <c r="F36" s="32"/>
+    </row>
+    <row r="37" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A37" s="82"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="32"/>
+    </row>
+    <row r="38" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A38" s="36"/>
+      <c r="F38" s="32"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="37"/>
+      <c r="F39" s="32"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="37"/>
+      <c r="F40" s="32"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="37"/>
+      <c r="F41" s="32"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="37"/>
+      <c r="F42" s="32"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="37"/>
+      <c r="F43" s="32"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="37"/>
+      <c r="F44" s="32"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="37"/>
+      <c r="F45" s="32"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="37"/>
+      <c r="F46" s="32"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="37"/>
+      <c r="F47" s="32"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="37"/>
+      <c r="F48" s="32"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="37"/>
+      <c r="F49" s="32"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="37"/>
+      <c r="F50" s="32"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="37"/>
+      <c r="F51" s="32"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="37"/>
+      <c r="F52" s="32"/>
+    </row>
+    <row r="53" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="38"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="32"/>
+    </row>
+    <row r="54" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="38"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="32"/>
+    </row>
+    <row r="55" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="39"/>
+      <c r="F55" s="32"/>
+    </row>
+    <row r="56" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="40"/>
+      <c r="F56" s="32"/>
+    </row>
+    <row r="57" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A57" s="79"/>
+      <c r="B57" s="79"/>
+      <c r="C57" s="79"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="79"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="25"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+    </row>
+    <row r="59" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A59" s="78"/>
+      <c r="B59" s="78"/>
+      <c r="C59" s="78"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="50"/>
+    </row>
+    <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A60" s="78"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="50"/>
+    </row>
+    <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A61" s="78"/>
+      <c r="B61" s="78"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="50"/>
+    </row>
+    <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A62" s="78"/>
+      <c r="B62" s="78"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="50"/>
+    </row>
+    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A63" s="78"/>
+      <c r="B63" s="78"/>
+      <c r="C63" s="78"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="50"/>
+    </row>
+    <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A64" s="78"/>
+      <c r="B64" s="78"/>
+      <c r="C64" s="78"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="50"/>
+    </row>
+    <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A65" s="78"/>
+      <c r="B65" s="78"/>
+      <c r="C65" s="78"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="50"/>
+    </row>
+    <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A66" s="78"/>
+      <c r="B66" s="78"/>
+      <c r="C66" s="78"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="50"/>
+    </row>
+    <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A67" s="78"/>
+      <c r="B67" s="78"/>
+      <c r="C67" s="78"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="50"/>
+    </row>
+    <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A68" s="78"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="50"/>
+    </row>
+    <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A69" s="78"/>
+      <c r="B69" s="78"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="49"/>
+      <c r="F69" s="50"/>
+    </row>
+    <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A70" s="78"/>
+      <c r="B70" s="78"/>
+      <c r="C70" s="78"/>
+      <c r="D70" s="48"/>
+      <c r="E70" s="49"/>
+      <c r="F70" s="50"/>
+    </row>
+    <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A71" s="78"/>
+      <c r="B71" s="78"/>
+      <c r="C71" s="78"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="49"/>
+      <c r="F71" s="50"/>
+    </row>
+    <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A72" s="78"/>
+      <c r="B72" s="78"/>
+      <c r="C72" s="78"/>
+      <c r="D72" s="48"/>
+      <c r="E72" s="49"/>
+      <c r="F72" s="50"/>
+    </row>
+    <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A73" s="78"/>
+      <c r="B73" s="47"/>
+      <c r="C73" s="47"/>
+      <c r="D73" s="48"/>
+      <c r="E73" s="49"/>
+      <c r="F73" s="50"/>
+    </row>
+    <row r="74" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A74" s="78"/>
+      <c r="B74" s="78"/>
+      <c r="C74" s="78"/>
+      <c r="D74" s="48"/>
+      <c r="E74" s="49"/>
+      <c r="F74" s="50"/>
+    </row>
+    <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A75" s="78"/>
+      <c r="B75" s="78"/>
+      <c r="C75" s="78"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="50"/>
+    </row>
+    <row r="76" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A76" s="78"/>
+      <c r="B76" s="78"/>
+      <c r="C76" s="78"/>
+      <c r="D76" s="48"/>
+      <c r="E76" s="49"/>
+      <c r="F76" s="50"/>
+    </row>
+    <row r="77" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A77" s="78"/>
+      <c r="B77" s="78"/>
+      <c r="C77" s="78"/>
+      <c r="D77" s="48"/>
+      <c r="E77" s="49"/>
+      <c r="F77" s="50"/>
+    </row>
+    <row r="78" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A78" s="78"/>
+      <c r="B78" s="78"/>
+      <c r="C78" s="78"/>
+      <c r="D78" s="48"/>
+      <c r="E78" s="49"/>
+      <c r="F78" s="50"/>
+    </row>
+    <row r="79" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A79" s="78"/>
+      <c r="B79" s="78"/>
+      <c r="C79" s="78"/>
+      <c r="D79" s="48"/>
+      <c r="E79" s="49"/>
+      <c r="F79" s="50"/>
+    </row>
+    <row r="80" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A80" s="78"/>
+      <c r="B80" s="78"/>
+      <c r="C80" s="78"/>
+      <c r="D80" s="48"/>
+      <c r="E80" s="49"/>
+      <c r="F80" s="50"/>
+    </row>
+    <row r="81" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A81" s="78"/>
+      <c r="B81" s="78"/>
+      <c r="C81" s="78"/>
+      <c r="D81" s="48"/>
+      <c r="E81" s="49"/>
+      <c r="F81" s="50"/>
+    </row>
+    <row r="82" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A82" s="78"/>
+      <c r="B82" s="78"/>
+      <c r="C82" s="78"/>
+      <c r="D82" s="48"/>
+      <c r="E82" s="49"/>
+      <c r="F82" s="50"/>
+    </row>
+    <row r="83" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A83" s="78"/>
+      <c r="B83" s="78"/>
+      <c r="C83" s="78"/>
+      <c r="D83" s="48"/>
+      <c r="E83" s="49"/>
+      <c r="F83" s="50"/>
+    </row>
+    <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A84" s="78"/>
+      <c r="B84" s="78"/>
+      <c r="C84" s="78"/>
+      <c r="D84" s="48"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="50"/>
+    </row>
+    <row r="85" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A85" s="78"/>
+      <c r="B85" s="78"/>
+      <c r="C85" s="78"/>
+      <c r="D85" s="48"/>
+      <c r="E85" s="49"/>
+      <c r="F85" s="50"/>
+    </row>
+    <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A86" s="78"/>
+      <c r="B86" s="78"/>
+      <c r="C86" s="78"/>
+      <c r="D86" s="48"/>
+      <c r="E86" s="49"/>
+      <c r="F86" s="50"/>
+    </row>
+    <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A87" s="78"/>
+      <c r="B87" s="78"/>
+      <c r="C87" s="78"/>
+      <c r="D87" s="48"/>
+      <c r="E87" s="49"/>
+      <c r="F87" s="50"/>
+    </row>
+    <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A88" s="78"/>
+      <c r="B88" s="78"/>
+      <c r="C88" s="78"/>
+      <c r="D88" s="48"/>
+      <c r="E88" s="49"/>
+      <c r="F88" s="50"/>
+    </row>
+    <row r="89" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A89" s="78"/>
+      <c r="B89" s="78"/>
+      <c r="C89" s="78"/>
+      <c r="D89" s="48"/>
+      <c r="E89" s="49"/>
+      <c r="F89" s="50"/>
+    </row>
+    <row r="90" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A90" s="78"/>
+      <c r="B90" s="78"/>
+      <c r="C90" s="78"/>
+      <c r="D90" s="48"/>
+      <c r="E90" s="49"/>
+      <c r="F90" s="50"/>
+    </row>
+    <row r="91" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A91" s="78"/>
+      <c r="B91" s="78"/>
+      <c r="C91" s="78"/>
+      <c r="D91" s="48"/>
+      <c r="E91" s="49"/>
+      <c r="F91" s="50"/>
+    </row>
+    <row r="92" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A92" s="78"/>
+      <c r="B92" s="78"/>
+      <c r="C92" s="78"/>
+      <c r="D92" s="48"/>
+      <c r="E92" s="49"/>
+      <c r="F92" s="50"/>
+    </row>
+    <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A93" s="78"/>
+      <c r="B93" s="78"/>
+      <c r="C93" s="78"/>
+      <c r="D93" s="48"/>
+      <c r="E93" s="49"/>
+      <c r="F93" s="50"/>
+    </row>
+    <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A94" s="78"/>
+      <c r="B94" s="78"/>
+      <c r="C94" s="78"/>
+      <c r="D94" s="48"/>
+      <c r="E94" s="49"/>
+      <c r="F94" s="50"/>
+    </row>
+    <row r="95" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A95" s="78"/>
+      <c r="B95" s="78"/>
+      <c r="C95" s="78"/>
+      <c r="D95" s="48"/>
+      <c r="E95" s="49"/>
+      <c r="F95" s="50"/>
+    </row>
+    <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A96" s="78"/>
+      <c r="B96" s="78"/>
+      <c r="C96" s="78"/>
+      <c r="D96" s="48"/>
+      <c r="E96" s="49"/>
+      <c r="F96" s="50"/>
+    </row>
+    <row r="97" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A97" s="78"/>
+      <c r="B97" s="78"/>
+      <c r="C97" s="78"/>
+      <c r="D97" s="48"/>
+      <c r="E97" s="49"/>
+      <c r="F97" s="50"/>
+    </row>
+    <row r="98" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A98" s="78"/>
+      <c r="B98" s="78"/>
+      <c r="C98" s="78"/>
+      <c r="D98" s="48"/>
+      <c r="E98" s="49"/>
+      <c r="F98" s="50"/>
+    </row>
+    <row r="99" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A99" s="78"/>
+      <c r="B99" s="78"/>
+      <c r="C99" s="78"/>
+      <c r="D99" s="48"/>
+      <c r="E99" s="49"/>
+      <c r="F99" s="50"/>
+    </row>
+    <row r="100" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A100" s="78"/>
+      <c r="B100" s="78"/>
+      <c r="C100" s="78"/>
+      <c r="D100" s="48"/>
+      <c r="E100" s="49"/>
+      <c r="F100" s="50"/>
+    </row>
+    <row r="101" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A101" s="78"/>
+      <c r="B101" s="78"/>
+      <c r="C101" s="78"/>
+      <c r="D101" s="48"/>
+      <c r="E101" s="49"/>
+      <c r="F101" s="50"/>
+    </row>
+    <row r="102" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A102" s="78"/>
+      <c r="B102" s="47"/>
+      <c r="C102" s="47"/>
+      <c r="D102" s="48"/>
+      <c r="E102" s="49"/>
+      <c r="F102" s="50"/>
+    </row>
+    <row r="103" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A103" s="78"/>
+      <c r="B103" s="78"/>
+      <c r="C103" s="78"/>
+      <c r="D103" s="48"/>
+      <c r="E103" s="49"/>
+      <c r="F103" s="50"/>
+    </row>
+    <row r="104" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A104" s="78"/>
+      <c r="B104" s="78"/>
+      <c r="C104" s="78"/>
+      <c r="D104" s="48"/>
+      <c r="E104" s="49"/>
+      <c r="F104" s="50"/>
+    </row>
+    <row r="105" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A105" s="78"/>
+      <c r="B105" s="78"/>
+      <c r="C105" s="78"/>
+      <c r="D105" s="48"/>
+      <c r="E105" s="49"/>
+      <c r="F105" s="50"/>
+    </row>
+    <row r="106" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A106" s="78"/>
+      <c r="B106" s="78"/>
+      <c r="C106" s="78"/>
+      <c r="D106" s="48"/>
+      <c r="E106" s="49"/>
+      <c r="F106" s="50"/>
+    </row>
+    <row r="107" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A107" s="78"/>
+      <c r="B107" s="78"/>
+      <c r="C107" s="78"/>
+      <c r="D107" s="48"/>
+      <c r="E107" s="49"/>
+      <c r="F107" s="50"/>
+    </row>
+    <row r="108" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A108" s="78"/>
+      <c r="B108" s="78"/>
+      <c r="C108" s="78"/>
+      <c r="D108" s="48"/>
+      <c r="E108" s="49"/>
+      <c r="F108" s="50"/>
+    </row>
+    <row r="109" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A109" s="78"/>
+      <c r="B109" s="78"/>
+      <c r="C109" s="78"/>
+      <c r="D109" s="48"/>
+      <c r="E109" s="49"/>
+      <c r="F109" s="50"/>
+    </row>
+    <row r="110" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A110" s="78"/>
+      <c r="B110" s="47"/>
+      <c r="C110" s="47"/>
+      <c r="D110" s="48"/>
+      <c r="E110" s="49"/>
+      <c r="F110" s="50"/>
+    </row>
+    <row r="111" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A111" s="78"/>
+      <c r="B111" s="78"/>
+      <c r="C111" s="78"/>
+      <c r="D111" s="48"/>
+      <c r="E111" s="49"/>
+      <c r="F111" s="50"/>
+    </row>
+    <row r="112" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A112" s="78"/>
+      <c r="B112" s="78"/>
+      <c r="C112" s="78"/>
+      <c r="D112" s="48"/>
+      <c r="E112" s="49"/>
+      <c r="F112" s="50"/>
+    </row>
+    <row r="113" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A113" s="78"/>
+      <c r="B113" s="78"/>
+      <c r="C113" s="78"/>
+      <c r="D113" s="48"/>
+      <c r="E113" s="49"/>
+      <c r="F113" s="50"/>
+    </row>
+    <row r="114" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A114" s="78"/>
+      <c r="B114" s="78"/>
+      <c r="C114" s="78"/>
+      <c r="D114" s="48"/>
+      <c r="E114" s="49"/>
+      <c r="F114" s="50"/>
+    </row>
+    <row r="115" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A115" s="78"/>
+      <c r="B115" s="78"/>
+      <c r="C115" s="78"/>
+      <c r="D115" s="48"/>
+      <c r="E115" s="49"/>
+      <c r="F115" s="50"/>
+    </row>
+    <row r="116" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A116" s="78"/>
+      <c r="B116" s="47"/>
+      <c r="C116" s="78"/>
+      <c r="D116" s="48"/>
+      <c r="E116" s="49"/>
+      <c r="F116" s="50"/>
+    </row>
+    <row r="117" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A117" s="78"/>
+      <c r="B117" s="47"/>
+      <c r="C117" s="78"/>
+      <c r="D117" s="48"/>
+      <c r="E117" s="49"/>
+      <c r="F117" s="50"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118" s="37"/>
+      <c r="F118" s="32"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119" s="37"/>
+      <c r="F119" s="32"/>
+    </row>
+    <row r="120" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A120" s="79"/>
+      <c r="B120" s="79"/>
+      <c r="C120" s="79"/>
+      <c r="D120" s="79"/>
+      <c r="E120" s="79"/>
+      <c r="F120" s="79"/>
+    </row>
+    <row r="121" spans="1:6" ht="16" x14ac:dyDescent="0.35">
+      <c r="A121" s="46"/>
+      <c r="B121" s="81"/>
+      <c r="C121" s="81"/>
+      <c r="D121" s="81"/>
+      <c r="E121" s="81"/>
+      <c r="F121" s="81"/>
+    </row>
+    <row r="122" spans="1:6" ht="16" x14ac:dyDescent="0.35">
+      <c r="A122" s="47"/>
+      <c r="B122" s="86"/>
+      <c r="C122" s="86"/>
+      <c r="D122" s="86"/>
+      <c r="E122" s="86"/>
+      <c r="F122" s="86"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123" s="37"/>
+      <c r="F123" s="32"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124" s="37"/>
+      <c r="F124" s="32"/>
+    </row>
+    <row r="125" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A125" s="66"/>
+      <c r="B125" s="66"/>
+      <c r="C125" s="66"/>
+      <c r="D125" s="66"/>
+      <c r="E125" s="66"/>
+      <c r="F125" s="66"/>
+    </row>
+    <row r="126" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A126" s="52"/>
+      <c r="B126" s="64"/>
+      <c r="C126" s="64"/>
+      <c r="D126" s="64"/>
+      <c r="E126" s="64"/>
+      <c r="F126" s="64"/>
+    </row>
+    <row r="127" spans="1:6" ht="16" x14ac:dyDescent="0.4">
+      <c r="A127" s="52"/>
+      <c r="B127" s="65"/>
+      <c r="C127" s="65"/>
+      <c r="D127" s="65"/>
+      <c r="E127" s="65"/>
+      <c r="F127" s="65"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128" s="37"/>
+      <c r="F128" s="32"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129" s="37"/>
+      <c r="F129" s="32"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130" s="37"/>
+      <c r="F130" s="32"/>
+    </row>
+    <row r="131" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A131" s="54"/>
+      <c r="B131" s="83"/>
+      <c r="C131" s="83"/>
+      <c r="D131" s="83"/>
+      <c r="E131" s="83"/>
+      <c r="F131" s="83"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132" s="37"/>
+      <c r="F132" s="32"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133" s="85"/>
+      <c r="B133" s="84"/>
+      <c r="C133" s="84"/>
+      <c r="D133" s="84"/>
+      <c r="E133" s="84"/>
+      <c r="F133" s="84"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134" s="85"/>
+      <c r="B134" s="84"/>
+      <c r="C134" s="84"/>
+      <c r="D134" s="84"/>
+      <c r="E134" s="84"/>
+      <c r="F134" s="84"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135" s="85"/>
+      <c r="B135" s="84"/>
+      <c r="C135" s="84"/>
+      <c r="D135" s="84"/>
+      <c r="E135" s="84"/>
+      <c r="F135" s="84"/>
+    </row>
+    <row r="136" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A136" s="36"/>
+      <c r="B136" s="28"/>
+      <c r="C136" s="28"/>
+      <c r="D136" s="28"/>
+      <c r="E136" s="28"/>
+      <c r="F136" s="53"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A137" s="37"/>
+      <c r="F137" s="32"/>
+    </row>
+    <row r="138" spans="1:6" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="56"/>
+      <c r="B138" s="80"/>
+      <c r="C138" s="80"/>
+      <c r="D138" s="80"/>
+      <c r="E138" s="80"/>
+      <c r="F138" s="80"/>
+    </row>
+  </sheetData>
+  <mergeCells count="58">
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="B134:F134"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="A133:A135"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="B131:F131"/>
+    <mergeCell ref="B122:F122"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="A59:A117"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="B126:F126"/>
+    <mergeCell ref="B127:F127"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="C87:C90"/>
+    <mergeCell ref="B91:B96"/>
+    <mergeCell ref="C91:C96"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="B121:F121"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/MagicBricks-MBadvice (1).xlsx
+++ b/MagicBricks-MBadvice (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/jakkula-mary-grace_jakkula-mary-grace_capgemini_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="672" documentId="8_{ED5C968E-25B5-4949-8956-D0FDBD41C61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35C0F719-06F6-4813-B042-863C5F75F218}"/>
+  <xr:revisionPtr revIDLastSave="972" documentId="8_{ED5C968E-25B5-4949-8956-D0FDBD41C61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46D788B7-57E1-45A0-B14A-C066093DC37B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="2" activeTab="5" xr2:uid="{D7CC03E0-26F2-449F-B7DA-802E593DEADC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="2" activeTab="6" xr2:uid="{D7CC03E0-26F2-449F-B7DA-802E593DEADC}"/>
   </bookViews>
   <sheets>
     <sheet name="UserStory" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="DefectReport" sheetId="5" r:id="rId4"/>
     <sheet name="RTM" sheetId="6" r:id="rId5"/>
     <sheet name="TestExecutionSummaryReport" sheetId="7" r:id="rId6"/>
-    <sheet name="Summary" sheetId="8" r:id="rId7"/>
+    <sheet name="Summary" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,8 +41,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="277">
   <si>
     <t>High</t>
   </si>
@@ -510,9 +532,6 @@
     <t>DR_ID</t>
   </si>
   <si>
-    <t>BR_MB_MBAdvicepage_01</t>
-  </si>
-  <si>
     <t>TR_MB_MBAdvicepage_01</t>
   </si>
   <si>
@@ -552,31 +571,16 @@
     <t>TR_MB_MBAdvicepage_03</t>
   </si>
   <si>
-    <t>BR_MB_MBAdvicepage_03</t>
-  </si>
-  <si>
-    <t>BR_MB_MBAdvicepage_04</t>
-  </si>
-  <si>
     <t>TR_MB_MBAdvicepage_04</t>
   </si>
   <si>
-    <t>BR_MB_MBAdvicepage_05</t>
-  </si>
-  <si>
     <t>TR_MB_MBAdvicepage_05</t>
   </si>
   <si>
-    <t>BR_MB_MBAdvicepage_06</t>
-  </si>
-  <si>
     <t>TR_MB_MBAdvicepage_06</t>
   </si>
   <si>
     <t>TR_MB_MBAdvicepage_07</t>
-  </si>
-  <si>
-    <t>BR_MB_MBAdvicepage_07</t>
   </si>
   <si>
     <r>
@@ -625,9 +629,6 @@
     <t>To Validate overview content is displayed or not.</t>
   </si>
   <si>
-    <t>Test Summary Report format</t>
-  </si>
-  <si>
     <t>UI Testing</t>
   </si>
   <si>
@@ -884,13 +885,194 @@
   </si>
   <si>
     <t>User clicks on  Rates &amp; Trends category in Tools &amp; Advice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Module Name: MB Advice </t>
+  </si>
+  <si>
+    <t>Test Application: MagicBricks</t>
+  </si>
+  <si>
+    <t>3.Testing Scope:</t>
+  </si>
+  <si>
+    <t>Not Covered:                                                                               Performance Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out-of-Scope:                                                                             Backend APIs, Admin Panel.        </t>
+  </si>
+  <si>
+    <t>In-Scope:                                                                                       Homepage, Localities, Search Box, Filters, Rates &amp; Trends.</t>
+  </si>
+  <si>
+    <t>4.Test Metrices:</t>
+  </si>
+  <si>
+    <t>Total Test Cases Failed                                                            3</t>
+  </si>
+  <si>
+    <t>Total Test Cases Planned                                                      15</t>
+  </si>
+  <si>
+    <t>Total Test Cases Executed                                                    15</t>
+  </si>
+  <si>
+    <t>Total Test Cases Passed                                                        12</t>
+  </si>
+  <si>
+    <t>Total number of Test cases Planned             Total number of Test cases Executed                          Total number of Test cases Passed         Total number of Test cases Failed            Remark</t>
+  </si>
+  <si>
+    <t>All Test Cases are executed 
+successfully.</t>
+  </si>
+  <si>
+    <t>Functionality Testing</t>
+  </si>
+  <si>
+    <t>Functional testing is a type of software testing that verifies that a system or application functions correctly according to its specifications or requirements.This type of testing focuses on testing the functionality of the software and ensuring that it behaves as expected from the end user's perspective.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI testing, or user interface testing, focuses on verifying the graphical user interface (GUI) of a software application. It involves testing elements such as buttons, menus, forms, and other
+ visual components to ensure they are displayed correctly and function as intended. UI testing checks for aspects like layout consistency, responsiveness to user interactions, and adherence to design standards. </t>
+  </si>
+  <si>
+    <t>6.Test Environment and Tools Used:</t>
+  </si>
+  <si>
+    <t>Application URL</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>https://www.magicbricks.com/property-
+for-sale-rent-in-Bangalore
+/residential-real-estate-Bangalore</t>
+  </si>
+  <si>
+    <t>5.Requirement Traceability  Matrix :</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Graphical representation:   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ 1.Testcases Passed vs Failed          
+ 2.Defect Severity</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2.Application Overview :      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                                                                                                                                MagicBricks Advice Page allows users to explore localities, view property trends, and apply filters.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1.Test Objective:                              </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                                                                                                                     To validate MB Advice Page features including homepage, localities, search, filters, and trends.</t>
+    </r>
+  </si>
+  <si>
+    <t>7.Recommendations &amp; Suggestions:</t>
+  </si>
+  <si>
+    <t>Fix search box validation issues. Improve error handling for invalid inputs.</t>
+  </si>
+  <si>
+    <t>8.Exit Criteria :</t>
+  </si>
+  <si>
+    <t>All planned test cases executed. Major functionalities validated. Defects logged for failed cases.</t>
+  </si>
+  <si>
+    <t>10.Sign-Off:</t>
+  </si>
+  <si>
+    <t>9.Test Environment &amp; Tools :</t>
+  </si>
+  <si>
+    <t>Browsers: Chrome, Edge | OS: Windows 11 | Tools: Excel, Manual Execution</t>
+  </si>
+  <si>
+    <t>The nature of the test cases are identified and the defects are of high severity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.Types of testing performed :</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                                                                                                                                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                     SUMMARY REPORT</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -971,92 +1153,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF333333"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1119,24 +1223,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1161,30 +1253,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1249,12 +1317,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1263,7 +1395,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1287,182 +1419,103 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1493,8 +1546,117 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2742044</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19242</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FB79596-ED7A-8D29-8433-D9B77867D53E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9717423"/>
+          <a:ext cx="7581514" cy="3309697"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1816,8 +1978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5508A11B-66D9-46F5-B9CF-56C678DF23F0}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B12"/>
+    <sheetView zoomScale="62" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1830,119 +1992,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
-        <v>170</v>
+      <c r="A1" s="23" t="s">
+        <v>163</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
-        <v>171</v>
+      <c r="A2" s="23" t="s">
+        <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="37"/>
+      <c r="B7" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="37"/>
+      <c r="B8" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="37"/>
+      <c r="B9" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C9" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="37"/>
+      <c r="B10" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C10" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="37"/>
+      <c r="B11" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="C11" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="37"/>
+      <c r="B12" s="19" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="61"/>
-      <c r="B7" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="61"/>
-      <c r="B8" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="61"/>
-      <c r="B9" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="D9" s="26" t="s">
+      <c r="C12" s="22" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="61"/>
-      <c r="B10" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="C10" s="23" t="s">
+      <c r="D12" s="24" t="s">
         <v>190</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="61"/>
-      <c r="B11" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="61"/>
-      <c r="B12" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -1975,7 +2137,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>2</v>
@@ -1995,7 +2157,7 @@
     </row>
     <row r="2" spans="1:6" ht="93.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>7</v>
@@ -2004,18 +2166,18 @@
         <v>8</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E2" s="19">
         <v>3</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="26" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="78.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>11</v>
@@ -2029,13 +2191,13 @@
       <c r="E3" s="19">
         <v>1</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>12</v>
@@ -2049,13 +2211,13 @@
       <c r="E4" s="19">
         <v>3</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="26" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>15</v>
@@ -2069,13 +2231,13 @@
       <c r="E5" s="19">
         <v>2</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="26" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>16</v>
@@ -2089,13 +2251,13 @@
       <c r="E6" s="19">
         <v>2</v>
       </c>
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="26" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="62" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>23</v>
@@ -2109,13 +2271,13 @@
       <c r="E7" s="19">
         <v>1</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="26" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>73</v>
@@ -2129,7 +2291,7 @@
       <c r="E8" s="19">
         <v>3</v>
       </c>
-      <c r="F8" s="60" t="s">
+      <c r="F8" s="26" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2157,8 +2319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC987783-B12D-4B14-BA4B-6CA4AC2DE258}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView zoomScale="72" zoomScaleNormal="48" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView zoomScale="38" zoomScaleNormal="48" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2184,7 +2346,7 @@
         <v>31</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>26</v>
@@ -2199,13 +2361,13 @@
         <v>29</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="K1" s="13" t="s">
         <v>128</v>
@@ -2217,45 +2379,45 @@
       <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="37" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="88" t="s">
+      <c r="F2" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="J2" s="60" t="s">
+      <c r="H2" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="J2" s="26" t="s">
         <v>39</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="60" t="s">
-        <v>213</v>
+      <c r="L2" s="26" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="61"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19" t="s">
         <v>34</v>
@@ -2266,86 +2428,86 @@
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
-      <c r="H3" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>168</v>
+      <c r="H3" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>161</v>
       </c>
       <c r="J3" s="19"/>
       <c r="K3" s="4"/>
       <c r="L3" s="19"/>
     </row>
     <row r="4" spans="1:14" ht="66.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="61"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="J4" s="60" t="s">
+      <c r="H4" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="J4" s="26" t="s">
         <v>48</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="60" t="s">
-        <v>169</v>
+      <c r="L4" s="26" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="61"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="26" t="s">
         <v>51</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="J5" s="60" t="s">
+      <c r="H5" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="J5" s="26" t="s">
         <v>52</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="60" t="s">
-        <v>213</v>
+      <c r="L5" s="26" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2355,291 +2517,291 @@
       <c r="B6" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="60" t="s">
+      <c r="G6" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="J6" s="60" t="s">
-        <v>215</v>
+      <c r="H6" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>208</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="60" t="s">
-        <v>213</v>
+      <c r="L6" s="26" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="66" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="37" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="26" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="J7" s="60" t="s">
+      <c r="H7" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="J7" s="26" t="s">
         <v>57</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="60" t="s">
-        <v>213</v>
+      <c r="L7" s="26" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="61"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="60" t="s">
+      <c r="F8" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="60" t="s">
+      <c r="G8" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="J8" s="60" t="s">
+      <c r="H8" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="J8" s="26" t="s">
         <v>62</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="L8" s="60" t="s">
-        <v>214</v>
+      <c r="L8" s="26" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="61"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="26" t="s">
         <v>85</v>
       </c>
       <c r="F9" s="19"/>
-      <c r="G9" s="60" t="s">
+      <c r="G9" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="J9" s="60" t="s">
+      <c r="H9" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="J9" s="26" t="s">
         <v>62</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="L9" s="60" t="s">
-        <v>214</v>
+      <c r="L9" s="26" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="37" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="60" t="s">
+      <c r="F10" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="60" t="s">
+      <c r="G10" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="H10" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="J10" s="60" t="s">
+      <c r="H10" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="J10" s="26" t="s">
         <v>94</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="60" t="s">
-        <v>213</v>
+      <c r="L10" s="26" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="61"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="60" t="s">
+      <c r="E11" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="G11" s="60" t="s">
+      <c r="G11" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="H11" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="J11" s="60" t="s">
+      <c r="H11" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="J11" s="26" t="s">
         <v>93</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L11" s="60" t="s">
-        <v>213</v>
+      <c r="L11" s="26" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="37" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="60" t="s">
+      <c r="F12" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="G12" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="H12" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="I12" s="23" t="s">
+      <c r="H12" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="J12" s="60" t="s">
+      <c r="I12" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="J12" s="26" t="s">
         <v>99</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L12" s="60" t="s">
-        <v>213</v>
+      <c r="L12" s="26" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="61"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="60" t="s">
-        <v>166</v>
-      </c>
-      <c r="D13" s="60" t="s">
+      <c r="C13" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="60" t="s">
+      <c r="E13" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="60" t="s">
+      <c r="G13" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="H13" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="J13" s="60" t="s">
+      <c r="H13" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="J13" s="26" t="s">
         <v>105</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L13" s="60" t="s">
-        <v>213</v>
+      <c r="L13" s="26" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2649,145 +2811,145 @@
       <c r="B14" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="E14" s="60" t="s">
+      <c r="E14" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="60" t="s">
+      <c r="F14" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="60" t="s">
+      <c r="G14" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="H14" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="J14" s="60" t="s">
+      <c r="H14" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="J14" s="26" t="s">
         <v>109</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="60" t="s">
-        <v>213</v>
+      <c r="L14" s="26" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="37" t="s">
         <v>73</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="60" t="s">
+      <c r="E15" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="60" t="s">
+      <c r="F15" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="G15" s="60" t="s">
+      <c r="G15" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="H15" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="J15" s="60" t="s">
+      <c r="H15" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="J15" s="26" t="s">
         <v>116</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L15" s="60" t="s">
-        <v>213</v>
+      <c r="L15" s="26" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="53.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="61"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="26" t="s">
         <v>119</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E16" s="60" t="s">
+      <c r="E16" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="60" t="s">
+      <c r="F16" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="G16" s="60" t="s">
+      <c r="G16" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="H16" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="J16" s="60" t="s">
+      <c r="H16" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="J16" s="26" t="s">
         <v>62</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="L16" s="60" t="s">
-        <v>214</v>
+      <c r="L16" s="26" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="61"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="26" t="s">
         <v>122</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="F17" s="60" t="s">
+      <c r="F17" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="G17" s="60" t="s">
+      <c r="G17" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="H17" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="I17" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="J17" s="60" t="s">
+      <c r="H17" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="J17" s="26" t="s">
         <v>126</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L17" s="60" t="s">
-        <v>213</v>
+      <c r="L17" s="26" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -3115,15 +3277,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD013C4-2627-4A1F-9736-9D8EB42CAFC0}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView zoomScale="77" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="70" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.08984375" customWidth="1"/>
-    <col min="2" max="2" width="36.7265625" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="87" customWidth="1"/>
+    <col min="2" max="3" width="36.7265625" customWidth="1"/>
     <col min="4" max="4" width="33.7265625" customWidth="1"/>
     <col min="5" max="5" width="26.36328125" customWidth="1"/>
     <col min="6" max="6" width="23.08984375" customWidth="1"/>
@@ -3138,179 +3299,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="I1" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="J1" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="90" t="s">
-        <v>218</v>
-      </c>
-      <c r="D1" s="90" t="s">
+      <c r="K1" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="L1" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="F1" s="90" t="s">
+      <c r="N1" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="G1" s="90" t="s">
+    </row>
+    <row r="2" spans="1:14" ht="97.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="F2" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="I1" s="90" t="s">
+      <c r="G2" t="s">
         <v>226</v>
       </c>
-      <c r="J1" s="90" t="s">
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
         <v>227</v>
       </c>
-      <c r="K1" s="90" t="s">
+      <c r="K2" s="28">
+        <v>45971</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="M2" t="s">
+        <v>231</v>
+      </c>
+      <c r="N2" t="s">
         <v>228</v>
       </c>
-      <c r="L1" s="90" t="s">
-        <v>127</v>
-      </c>
-      <c r="M1" s="90" t="s">
+    </row>
+    <row r="3" spans="1:14" ht="81" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3" t="s">
+        <v>226</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>227</v>
+      </c>
+      <c r="K3" s="28">
+        <v>45971</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="M3" t="s">
+        <v>231</v>
+      </c>
+      <c r="N3" t="s">
         <v>229</v>
       </c>
-      <c r="N1" s="90" t="s">
+    </row>
+    <row r="4" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="G4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K4" s="28">
+        <v>45971</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="M4" t="s">
+        <v>231</v>
+      </c>
+      <c r="N4" t="s">
         <v>230</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="63.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="91" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="G2" t="s">
-        <v>233</v>
-      </c>
-      <c r="H2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="92" t="s">
-        <v>234</v>
-      </c>
-      <c r="K2" s="89">
-        <v>45971</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="M2" s="93" t="s">
-        <v>238</v>
-      </c>
-      <c r="N2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="59" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="91" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="G3" t="s">
-        <v>233</v>
-      </c>
-      <c r="H3" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="92" t="s">
-        <v>234</v>
-      </c>
-      <c r="K3" s="89">
-        <v>45971</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="M3" s="93" t="s">
-        <v>238</v>
-      </c>
-      <c r="N3" s="92" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="G4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="92" t="s">
-        <v>234</v>
-      </c>
-      <c r="K4" s="89">
-        <v>45971</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="M4" s="93" t="s">
-        <v>238</v>
-      </c>
-      <c r="N4" s="92" t="s">
-        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -3328,7 +3489,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3362,11 +3523,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="38" t="s">
         <v>140</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -3382,8 +3543,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
@@ -3398,8 +3559,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
@@ -3415,10 +3576,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
@@ -3434,11 +3595,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="B6" s="62" t="s">
-        <v>153</v>
+      <c r="A6" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>152</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -3454,8 +3615,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
@@ -3470,8 +3631,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
@@ -3486,11 +3647,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="B9" s="62" t="s">
-        <v>156</v>
+      <c r="A9" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>153</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
@@ -3506,8 +3667,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
@@ -3522,11 +3683,11 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="B11" s="62" t="s">
-        <v>158</v>
+      <c r="A11" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>154</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>16</v>
@@ -3542,8 +3703,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="62"/>
-      <c r="B12" s="62"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
@@ -3559,10 +3720,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>23</v>
@@ -3578,11 +3739,11 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="62" t="s">
-        <v>162</v>
-      </c>
-      <c r="B14" s="62" t="s">
-        <v>161</v>
+      <c r="A14" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>156</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>73</v>
@@ -3598,8 +3759,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="62"/>
-      <c r="B15" s="62"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="1" t="s">
         <v>73</v>
       </c>
@@ -3614,8 +3775,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="62"/>
-      <c r="B16" s="62"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
       <c r="C16" t="s">
         <v>73</v>
       </c>
@@ -3650,7 +3811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CA5874-D587-4C08-ACE7-4A5E4DFD9BDE}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="68" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -3668,54 +3829,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
-        <v>163</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
+      <c r="A1" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="61" t="s">
-        <v>150</v>
-      </c>
       <c r="B3" s="17" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C3" s="17">
         <v>15</v>
@@ -3741,9 +3902,9 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="61"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="19" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C4" s="19">
         <v>3</v>
@@ -3769,9 +3930,9 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="61"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="19" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C5" s="19">
         <v>1</v>
@@ -3797,9 +3958,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="61"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="19" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C6" s="19">
         <v>3</v>
@@ -3825,9 +3986,9 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="61"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="19" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C7" s="19">
         <v>2</v>
@@ -3853,9 +4014,9 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="61"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="19" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C8" s="19">
         <v>2</v>
@@ -3881,9 +4042,9 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="61"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="19" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C9" s="19">
         <v>1</v>
@@ -3909,9 +4070,9 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="61"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="19" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C10" s="19">
         <v>3</v>
@@ -3946,1004 +4107,957 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7E18A8-A25E-4632-A9B5-338EA70C0E4B}">
-  <dimension ref="A2:F138"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680B40E4-F7AD-4F12-B812-0857FFA7FA0F}">
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView zoomScale="59" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="168" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" customWidth="1"/>
-    <col min="5" max="5" width="20.26953125" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" customWidth="1"/>
-    <col min="7" max="7" width="16.26953125" customWidth="1"/>
+    <col min="1" max="1" width="33.26953125" customWidth="1"/>
+    <col min="2" max="2" width="35.90625" customWidth="1"/>
+    <col min="3" max="3" width="39.26953125" customWidth="1"/>
+    <col min="4" max="4" width="34.26953125" customWidth="1"/>
+    <col min="5" max="5" width="32.453125" customWidth="1"/>
+    <col min="6" max="6" width="18.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="25" x14ac:dyDescent="0.5">
-      <c r="A2" s="75" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-    </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.35">
-      <c r="A3" s="31"/>
-      <c r="F3" s="32"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="44"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="33"/>
-      <c r="F4" s="32"/>
-    </row>
-    <row r="5" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="59"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-    </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.35">
-      <c r="A6" s="34"/>
-      <c r="F6" s="32"/>
-    </row>
-    <row r="7" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="59"/>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-    </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.35">
-      <c r="A8" s="35"/>
-      <c r="F8" s="32"/>
-    </row>
-    <row r="9" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="73"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="43"/>
-    </row>
-    <row r="10" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="67"/>
-      <c r="B10" s="26"/>
-      <c r="F10" s="32"/>
-    </row>
-    <row r="11" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="68"/>
-      <c r="B11" s="26"/>
-      <c r="F11" s="32"/>
-    </row>
-    <row r="12" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="68"/>
-      <c r="B12" s="23"/>
-      <c r="F12" s="32"/>
-    </row>
-    <row r="13" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="68"/>
-      <c r="B13" s="23"/>
-      <c r="F13" s="32"/>
-    </row>
-    <row r="14" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="68"/>
-      <c r="B14" s="23"/>
-      <c r="F14" s="32"/>
-    </row>
-    <row r="15" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="68"/>
-      <c r="B15" s="57"/>
-      <c r="F15" s="32"/>
-    </row>
-    <row r="16" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="68"/>
-      <c r="B16" s="57"/>
-      <c r="F16" s="32"/>
-    </row>
-    <row r="17" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="68"/>
-      <c r="B17" s="23"/>
-      <c r="F17" s="32"/>
-    </row>
-    <row r="18" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="69"/>
-      <c r="B18" s="23"/>
-      <c r="F18" s="32"/>
-    </row>
-    <row r="19" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="58"/>
-      <c r="B19" s="26"/>
-      <c r="F19" s="32"/>
-    </row>
-    <row r="20" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="70"/>
-      <c r="B20" s="23"/>
-      <c r="F20" s="32"/>
-    </row>
-    <row r="21" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="71"/>
-      <c r="B21" s="23"/>
-      <c r="F21" s="32"/>
-    </row>
-    <row r="22" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="71"/>
-      <c r="B22" s="23"/>
-      <c r="F22" s="32"/>
-    </row>
-    <row r="23" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="71"/>
-      <c r="B23" s="23"/>
-      <c r="F23" s="32"/>
-    </row>
-    <row r="24" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="71"/>
-      <c r="B24" s="23"/>
-      <c r="F24" s="32"/>
+      <c r="A4" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="50"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="42"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="44"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="44"/>
+    </row>
+    <row r="8" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="47"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="60"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="60"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="60"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="60"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="60"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="60"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="60"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="42"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="60"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="B18" s="62"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="60"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="42"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="60"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="B20" s="22">
+        <v>15</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="60"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="B21" s="22">
+        <v>15</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="60"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="B22" s="22">
+        <v>12</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="60"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="B23" s="22">
+        <v>3</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="42"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="44"/>
     </row>
     <row r="25" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="71"/>
-      <c r="B25" s="23"/>
-      <c r="F25" s="32"/>
-    </row>
-    <row r="26" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="72"/>
-      <c r="B26" s="23"/>
-      <c r="F26" s="32"/>
+      <c r="A25" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="22"/>
+    </row>
+    <row r="26" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="24">
+        <v>15</v>
+      </c>
+      <c r="B26" s="22">
+        <v>15</v>
+      </c>
+      <c r="C26" s="22">
+        <v>12</v>
+      </c>
+      <c r="D26" s="22">
+        <v>3</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F27" s="32"/>
-    </row>
-    <row r="28" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="76"/>
-      <c r="B28" s="76"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="32"/>
-    </row>
-    <row r="29" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="55"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="32"/>
-    </row>
-    <row r="30" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="55"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="32"/>
-    </row>
-    <row r="31" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="55"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="32"/>
-    </row>
-    <row r="32" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="55"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="32"/>
-    </row>
-    <row r="33" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="42"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="44"/>
+    </row>
+    <row r="28" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="B28" s="42"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="44"/>
+    </row>
+    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="45"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="47"/>
+    </row>
+    <row r="30" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="48"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="50"/>
+    </row>
+    <row r="31" spans="1:6" ht="221.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="42" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B31" s="43"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="44"/>
+    </row>
+    <row r="32" spans="1:6" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="42"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="44"/>
+    </row>
+    <row r="33" spans="1:6" ht="144.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="22"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="32"/>
-    </row>
-    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.35">
-      <c r="A34" s="44"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="32"/>
-    </row>
-    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.35">
-      <c r="A35" s="46"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="32"/>
-    </row>
-    <row r="36" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A36" s="36"/>
-      <c r="F36" s="32"/>
-    </row>
-    <row r="37" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A37" s="82"/>
-      <c r="B37" s="76"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="32"/>
-    </row>
-    <row r="38" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A38" s="36"/>
-      <c r="F38" s="32"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="47"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="60"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="60"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="60"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="60"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="60"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="37"/>
-      <c r="F39" s="32"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="60"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="37"/>
-      <c r="F40" s="32"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="60"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="37"/>
-      <c r="F41" s="32"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="60"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="37"/>
-      <c r="F42" s="32"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="50"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="37"/>
-      <c r="F43" s="32"/>
+      <c r="A43" s="61" t="s">
+        <v>263</v>
+      </c>
+      <c r="B43" s="62"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="63"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="37"/>
-      <c r="F44" s="32"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="37"/>
-      <c r="F45" s="32"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="37"/>
-      <c r="F46" s="32"/>
+      <c r="A46" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="37"/>
-      <c r="F47" s="32"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="37"/>
-      <c r="F48" s="32"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="37"/>
-      <c r="F49" s="32"/>
+      <c r="A49" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="37"/>
-      <c r="F50" s="32"/>
+      <c r="A50" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="37"/>
-      <c r="F51" s="32"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="37"/>
-      <c r="F52" s="32"/>
-    </row>
-    <row r="53" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="38"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="32"/>
-    </row>
-    <row r="54" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="38"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="32"/>
-    </row>
-    <row r="55" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="39"/>
-      <c r="F55" s="32"/>
-    </row>
-    <row r="56" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="40"/>
-      <c r="F56" s="32"/>
-    </row>
-    <row r="57" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A57" s="79"/>
-      <c r="B57" s="79"/>
-      <c r="C57" s="79"/>
-      <c r="D57" s="79"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="79"/>
+      <c r="A52" s="51"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F52" s="19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="51"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="B55" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="51"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57" s="19" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="25"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-    </row>
-    <row r="59" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A59" s="78"/>
-      <c r="B59" s="78"/>
-      <c r="C59" s="78"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="50"/>
-    </row>
-    <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A60" s="78"/>
-      <c r="B60" s="78"/>
-      <c r="C60" s="78"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="50"/>
-    </row>
-    <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A61" s="78"/>
-      <c r="B61" s="78"/>
-      <c r="C61" s="47"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="50"/>
-    </row>
-    <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A62" s="78"/>
-      <c r="B62" s="78"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="48"/>
+      <c r="A58" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="B58" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="51"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F59" s="19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="51"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="45"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="47"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="48"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
       <c r="E62" s="49"/>
       <c r="F62" s="50"/>
     </row>
-    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A63" s="78"/>
-      <c r="B63" s="78"/>
-      <c r="C63" s="78"/>
-      <c r="D63" s="48"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="50"/>
-    </row>
-    <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A64" s="78"/>
-      <c r="B64" s="78"/>
-      <c r="C64" s="78"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="50"/>
-    </row>
-    <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A65" s="78"/>
-      <c r="B65" s="78"/>
-      <c r="C65" s="78"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="50"/>
-    </row>
-    <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A66" s="78"/>
-      <c r="B66" s="78"/>
-      <c r="C66" s="78"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="50"/>
-    </row>
-    <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A67" s="78"/>
-      <c r="B67" s="78"/>
-      <c r="C67" s="78"/>
-      <c r="D67" s="51"/>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
+    </row>
+    <row r="64" spans="1:6" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="B64" s="54" t="s">
+        <v>257</v>
+      </c>
+      <c r="C64" s="41"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
+    </row>
+    <row r="65" spans="1:6" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B65" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="45"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="47"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="48"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="49"/>
       <c r="E67" s="49"/>
       <c r="F67" s="50"/>
     </row>
-    <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A68" s="78"/>
-      <c r="B68" s="47"/>
-      <c r="C68" s="47"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="50"/>
-    </row>
-    <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A69" s="78"/>
-      <c r="B69" s="78"/>
-      <c r="C69" s="47"/>
-      <c r="D69" s="48"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="50"/>
-    </row>
-    <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A70" s="78"/>
-      <c r="B70" s="78"/>
-      <c r="C70" s="78"/>
-      <c r="D70" s="48"/>
+    <row r="68" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="64" t="s">
+        <v>259</v>
+      </c>
+      <c r="B68" s="65"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="66"/>
+    </row>
+    <row r="69" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="C69" s="45"/>
+      <c r="D69" s="46"/>
+      <c r="E69" s="46"/>
+      <c r="F69" s="47"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="B70" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" s="48"/>
+      <c r="D70" s="49"/>
       <c r="E70" s="49"/>
       <c r="F70" s="50"/>
     </row>
-    <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A71" s="78"/>
-      <c r="B71" s="78"/>
-      <c r="C71" s="78"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="49"/>
-      <c r="F71" s="50"/>
-    </row>
-    <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A72" s="78"/>
-      <c r="B72" s="78"/>
-      <c r="C72" s="78"/>
-      <c r="D72" s="48"/>
-      <c r="E72" s="49"/>
-      <c r="F72" s="50"/>
-    </row>
-    <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A73" s="78"/>
-      <c r="B73" s="47"/>
-      <c r="C73" s="47"/>
-      <c r="D73" s="48"/>
-      <c r="E73" s="49"/>
-      <c r="F73" s="50"/>
-    </row>
-    <row r="74" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A74" s="78"/>
-      <c r="B74" s="78"/>
-      <c r="C74" s="78"/>
-      <c r="D74" s="48"/>
-      <c r="E74" s="49"/>
-      <c r="F74" s="50"/>
-    </row>
-    <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A75" s="78"/>
-      <c r="B75" s="78"/>
-      <c r="C75" s="78"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="49"/>
-      <c r="F75" s="50"/>
-    </row>
-    <row r="76" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A76" s="78"/>
-      <c r="B76" s="78"/>
-      <c r="C76" s="78"/>
-      <c r="D76" s="48"/>
-      <c r="E76" s="49"/>
-      <c r="F76" s="50"/>
-    </row>
-    <row r="77" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A77" s="78"/>
-      <c r="B77" s="78"/>
-      <c r="C77" s="78"/>
-      <c r="D77" s="48"/>
-      <c r="E77" s="49"/>
-      <c r="F77" s="50"/>
-    </row>
-    <row r="78" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A78" s="78"/>
-      <c r="B78" s="78"/>
-      <c r="C78" s="78"/>
-      <c r="D78" s="48"/>
-      <c r="E78" s="49"/>
-      <c r="F78" s="50"/>
-    </row>
-    <row r="79" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A79" s="78"/>
-      <c r="B79" s="78"/>
-      <c r="C79" s="78"/>
-      <c r="D79" s="48"/>
-      <c r="E79" s="49"/>
-      <c r="F79" s="50"/>
-    </row>
-    <row r="80" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A80" s="78"/>
-      <c r="B80" s="78"/>
-      <c r="C80" s="78"/>
-      <c r="D80" s="48"/>
-      <c r="E80" s="49"/>
-      <c r="F80" s="50"/>
-    </row>
-    <row r="81" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A81" s="78"/>
-      <c r="B81" s="78"/>
-      <c r="C81" s="78"/>
-      <c r="D81" s="48"/>
-      <c r="E81" s="49"/>
-      <c r="F81" s="50"/>
-    </row>
-    <row r="82" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A82" s="78"/>
-      <c r="B82" s="78"/>
-      <c r="C82" s="78"/>
-      <c r="D82" s="48"/>
-      <c r="E82" s="49"/>
-      <c r="F82" s="50"/>
-    </row>
-    <row r="83" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A83" s="78"/>
-      <c r="B83" s="78"/>
-      <c r="C83" s="78"/>
-      <c r="D83" s="48"/>
-      <c r="E83" s="49"/>
-      <c r="F83" s="50"/>
-    </row>
-    <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A84" s="78"/>
-      <c r="B84" s="78"/>
-      <c r="C84" s="78"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="49"/>
-      <c r="F84" s="50"/>
-    </row>
-    <row r="85" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A85" s="78"/>
-      <c r="B85" s="78"/>
-      <c r="C85" s="78"/>
-      <c r="D85" s="48"/>
-      <c r="E85" s="49"/>
-      <c r="F85" s="50"/>
-    </row>
-    <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A86" s="78"/>
-      <c r="B86" s="78"/>
-      <c r="C86" s="78"/>
-      <c r="D86" s="48"/>
-      <c r="E86" s="49"/>
-      <c r="F86" s="50"/>
-    </row>
-    <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A87" s="78"/>
-      <c r="B87" s="78"/>
-      <c r="C87" s="78"/>
-      <c r="D87" s="48"/>
-      <c r="E87" s="49"/>
-      <c r="F87" s="50"/>
-    </row>
-    <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A88" s="78"/>
-      <c r="B88" s="78"/>
-      <c r="C88" s="78"/>
-      <c r="D88" s="48"/>
-      <c r="E88" s="49"/>
-      <c r="F88" s="50"/>
-    </row>
-    <row r="89" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A89" s="78"/>
-      <c r="B89" s="78"/>
-      <c r="C89" s="78"/>
-      <c r="D89" s="48"/>
-      <c r="E89" s="49"/>
-      <c r="F89" s="50"/>
-    </row>
-    <row r="90" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A90" s="78"/>
-      <c r="B90" s="78"/>
-      <c r="C90" s="78"/>
-      <c r="D90" s="48"/>
-      <c r="E90" s="49"/>
-      <c r="F90" s="50"/>
-    </row>
-    <row r="91" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A91" s="78"/>
-      <c r="B91" s="78"/>
-      <c r="C91" s="78"/>
-      <c r="D91" s="48"/>
-      <c r="E91" s="49"/>
-      <c r="F91" s="50"/>
-    </row>
-    <row r="92" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A92" s="78"/>
-      <c r="B92" s="78"/>
-      <c r="C92" s="78"/>
-      <c r="D92" s="48"/>
-      <c r="E92" s="49"/>
-      <c r="F92" s="50"/>
-    </row>
-    <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A93" s="78"/>
-      <c r="B93" s="78"/>
-      <c r="C93" s="78"/>
-      <c r="D93" s="48"/>
-      <c r="E93" s="49"/>
-      <c r="F93" s="50"/>
-    </row>
-    <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A94" s="78"/>
-      <c r="B94" s="78"/>
-      <c r="C94" s="78"/>
-      <c r="D94" s="48"/>
-      <c r="E94" s="49"/>
-      <c r="F94" s="50"/>
-    </row>
-    <row r="95" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A95" s="78"/>
-      <c r="B95" s="78"/>
-      <c r="C95" s="78"/>
-      <c r="D95" s="48"/>
-      <c r="E95" s="49"/>
-      <c r="F95" s="50"/>
-    </row>
-    <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A96" s="78"/>
-      <c r="B96" s="78"/>
-      <c r="C96" s="78"/>
-      <c r="D96" s="48"/>
-      <c r="E96" s="49"/>
-      <c r="F96" s="50"/>
-    </row>
-    <row r="97" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A97" s="78"/>
-      <c r="B97" s="78"/>
-      <c r="C97" s="78"/>
-      <c r="D97" s="48"/>
-      <c r="E97" s="49"/>
-      <c r="F97" s="50"/>
-    </row>
-    <row r="98" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A98" s="78"/>
-      <c r="B98" s="78"/>
-      <c r="C98" s="78"/>
-      <c r="D98" s="48"/>
-      <c r="E98" s="49"/>
-      <c r="F98" s="50"/>
-    </row>
-    <row r="99" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A99" s="78"/>
-      <c r="B99" s="78"/>
-      <c r="C99" s="78"/>
-      <c r="D99" s="48"/>
-      <c r="E99" s="49"/>
-      <c r="F99" s="50"/>
-    </row>
-    <row r="100" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A100" s="78"/>
-      <c r="B100" s="78"/>
-      <c r="C100" s="78"/>
-      <c r="D100" s="48"/>
-      <c r="E100" s="49"/>
-      <c r="F100" s="50"/>
-    </row>
-    <row r="101" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A101" s="78"/>
-      <c r="B101" s="78"/>
-      <c r="C101" s="78"/>
-      <c r="D101" s="48"/>
-      <c r="E101" s="49"/>
-      <c r="F101" s="50"/>
-    </row>
-    <row r="102" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A102" s="78"/>
-      <c r="B102" s="47"/>
-      <c r="C102" s="47"/>
-      <c r="D102" s="48"/>
-      <c r="E102" s="49"/>
-      <c r="F102" s="50"/>
-    </row>
-    <row r="103" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A103" s="78"/>
-      <c r="B103" s="78"/>
-      <c r="C103" s="78"/>
-      <c r="D103" s="48"/>
-      <c r="E103" s="49"/>
-      <c r="F103" s="50"/>
-    </row>
-    <row r="104" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A104" s="78"/>
-      <c r="B104" s="78"/>
-      <c r="C104" s="78"/>
-      <c r="D104" s="48"/>
-      <c r="E104" s="49"/>
-      <c r="F104" s="50"/>
-    </row>
-    <row r="105" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A105" s="78"/>
-      <c r="B105" s="78"/>
-      <c r="C105" s="78"/>
-      <c r="D105" s="48"/>
-      <c r="E105" s="49"/>
-      <c r="F105" s="50"/>
-    </row>
-    <row r="106" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A106" s="78"/>
-      <c r="B106" s="78"/>
-      <c r="C106" s="78"/>
-      <c r="D106" s="48"/>
-      <c r="E106" s="49"/>
-      <c r="F106" s="50"/>
-    </row>
-    <row r="107" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A107" s="78"/>
-      <c r="B107" s="78"/>
-      <c r="C107" s="78"/>
-      <c r="D107" s="48"/>
-      <c r="E107" s="49"/>
-      <c r="F107" s="50"/>
-    </row>
-    <row r="108" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A108" s="78"/>
-      <c r="B108" s="78"/>
-      <c r="C108" s="78"/>
-      <c r="D108" s="48"/>
-      <c r="E108" s="49"/>
-      <c r="F108" s="50"/>
-    </row>
-    <row r="109" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A109" s="78"/>
-      <c r="B109" s="78"/>
-      <c r="C109" s="78"/>
-      <c r="D109" s="48"/>
-      <c r="E109" s="49"/>
-      <c r="F109" s="50"/>
-    </row>
-    <row r="110" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A110" s="78"/>
-      <c r="B110" s="47"/>
-      <c r="C110" s="47"/>
-      <c r="D110" s="48"/>
-      <c r="E110" s="49"/>
-      <c r="F110" s="50"/>
-    </row>
-    <row r="111" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A111" s="78"/>
-      <c r="B111" s="78"/>
-      <c r="C111" s="78"/>
-      <c r="D111" s="48"/>
-      <c r="E111" s="49"/>
-      <c r="F111" s="50"/>
-    </row>
-    <row r="112" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A112" s="78"/>
-      <c r="B112" s="78"/>
-      <c r="C112" s="78"/>
-      <c r="D112" s="48"/>
-      <c r="E112" s="49"/>
-      <c r="F112" s="50"/>
-    </row>
-    <row r="113" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A113" s="78"/>
-      <c r="B113" s="78"/>
-      <c r="C113" s="78"/>
-      <c r="D113" s="48"/>
-      <c r="E113" s="49"/>
-      <c r="F113" s="50"/>
-    </row>
-    <row r="114" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A114" s="78"/>
-      <c r="B114" s="78"/>
-      <c r="C114" s="78"/>
-      <c r="D114" s="48"/>
-      <c r="E114" s="49"/>
-      <c r="F114" s="50"/>
-    </row>
-    <row r="115" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A115" s="78"/>
-      <c r="B115" s="78"/>
-      <c r="C115" s="78"/>
-      <c r="D115" s="48"/>
-      <c r="E115" s="49"/>
-      <c r="F115" s="50"/>
-    </row>
-    <row r="116" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A116" s="78"/>
-      <c r="B116" s="47"/>
-      <c r="C116" s="78"/>
-      <c r="D116" s="48"/>
-      <c r="E116" s="49"/>
-      <c r="F116" s="50"/>
-    </row>
-    <row r="117" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A117" s="78"/>
-      <c r="B117" s="47"/>
-      <c r="C117" s="78"/>
-      <c r="D117" s="48"/>
-      <c r="E117" s="49"/>
-      <c r="F117" s="50"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A118" s="37"/>
-      <c r="F118" s="32"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A119" s="37"/>
-      <c r="F119" s="32"/>
-    </row>
-    <row r="120" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A120" s="79"/>
-      <c r="B120" s="79"/>
-      <c r="C120" s="79"/>
-      <c r="D120" s="79"/>
-      <c r="E120" s="79"/>
-      <c r="F120" s="79"/>
-    </row>
-    <row r="121" spans="1:6" ht="16" x14ac:dyDescent="0.35">
-      <c r="A121" s="46"/>
-      <c r="B121" s="81"/>
-      <c r="C121" s="81"/>
-      <c r="D121" s="81"/>
-      <c r="E121" s="81"/>
-      <c r="F121" s="81"/>
-    </row>
-    <row r="122" spans="1:6" ht="16" x14ac:dyDescent="0.35">
-      <c r="A122" s="47"/>
-      <c r="B122" s="86"/>
-      <c r="C122" s="86"/>
-      <c r="D122" s="86"/>
-      <c r="E122" s="86"/>
-      <c r="F122" s="86"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A123" s="37"/>
-      <c r="F123" s="32"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A124" s="37"/>
-      <c r="F124" s="32"/>
-    </row>
-    <row r="125" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A125" s="66"/>
-      <c r="B125" s="66"/>
-      <c r="C125" s="66"/>
-      <c r="D125" s="66"/>
-      <c r="E125" s="66"/>
-      <c r="F125" s="66"/>
-    </row>
-    <row r="126" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A126" s="52"/>
-      <c r="B126" s="64"/>
-      <c r="C126" s="64"/>
-      <c r="D126" s="64"/>
-      <c r="E126" s="64"/>
-      <c r="F126" s="64"/>
-    </row>
-    <row r="127" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A127" s="52"/>
-      <c r="B127" s="65"/>
-      <c r="C127" s="65"/>
-      <c r="D127" s="65"/>
-      <c r="E127" s="65"/>
-      <c r="F127" s="65"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A128" s="37"/>
-      <c r="F128" s="32"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A129" s="37"/>
-      <c r="F129" s="32"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A130" s="37"/>
-      <c r="F130" s="32"/>
-    </row>
-    <row r="131" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A131" s="54"/>
-      <c r="B131" s="83"/>
-      <c r="C131" s="83"/>
-      <c r="D131" s="83"/>
-      <c r="E131" s="83"/>
-      <c r="F131" s="83"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A132" s="37"/>
-      <c r="F132" s="32"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A133" s="85"/>
-      <c r="B133" s="84"/>
-      <c r="C133" s="84"/>
-      <c r="D133" s="84"/>
-      <c r="E133" s="84"/>
-      <c r="F133" s="84"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A134" s="85"/>
-      <c r="B134" s="84"/>
-      <c r="C134" s="84"/>
-      <c r="D134" s="84"/>
-      <c r="E134" s="84"/>
-      <c r="F134" s="84"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A135" s="85"/>
-      <c r="B135" s="84"/>
-      <c r="C135" s="84"/>
-      <c r="D135" s="84"/>
-      <c r="E135" s="84"/>
-      <c r="F135" s="84"/>
-    </row>
-    <row r="136" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A136" s="36"/>
-      <c r="B136" s="28"/>
-      <c r="C136" s="28"/>
-      <c r="D136" s="28"/>
-      <c r="E136" s="28"/>
-      <c r="F136" s="53"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A137" s="37"/>
-      <c r="F137" s="32"/>
-    </row>
-    <row r="138" spans="1:6" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="56"/>
-      <c r="B138" s="80"/>
-      <c r="C138" s="80"/>
-      <c r="D138" s="80"/>
-      <c r="E138" s="80"/>
-      <c r="F138" s="80"/>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="57"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="55"/>
+      <c r="D71" s="55"/>
+      <c r="E71" s="55"/>
+      <c r="F71" s="56"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="B72" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="C72" s="41"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="41"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="55"/>
+      <c r="B73" s="55"/>
+      <c r="C73" s="55"/>
+      <c r="D73" s="55"/>
+      <c r="E73" s="55"/>
+      <c r="F73" s="56"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="B74" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="C74" s="41"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="41"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="57"/>
+      <c r="B75" s="55"/>
+      <c r="C75" s="55"/>
+      <c r="D75" s="55"/>
+      <c r="E75" s="55"/>
+      <c r="F75" s="56"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="B76" s="53" t="s">
+        <v>273</v>
+      </c>
+      <c r="C76" s="53"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="53"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="42"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="44"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="B78" s="57" t="s">
+        <v>274</v>
+      </c>
+      <c r="C78" s="55"/>
+      <c r="D78" s="55"/>
+      <c r="E78" s="55"/>
+      <c r="F78" s="56"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="57"/>
+      <c r="B79" s="55"/>
+      <c r="C79" s="55"/>
+      <c r="D79" s="55"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="B133:F133"/>
-    <mergeCell ref="B134:F134"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="A133:A135"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="B131:F131"/>
-    <mergeCell ref="B122:F122"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="A9:B9"/>
+  <mergeCells count="44">
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D33:F42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="C69:F70"/>
+    <mergeCell ref="A66:F67"/>
+    <mergeCell ref="A61:F62"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="D9:F23"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A29:F30"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B3:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="B59:B64"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="A59:A117"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="B126:F126"/>
-    <mergeCell ref="B127:F127"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="C87:C90"/>
-    <mergeCell ref="B91:B96"/>
-    <mergeCell ref="C91:C96"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="B121:F121"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="A50:A52"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B69" r:id="rId1" xr:uid="{A15E77A7-10E0-4FB0-9967-D3E837F0C416}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
